--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>760251.9455487467</v>
+        <v>839045.6479924399</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5389411.289474645</v>
+        <v>5739665.974240763</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9704516.315063084</v>
+        <v>9561717.972910352</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>198.9430992003375</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>303.3081494931583</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3343964518642</v>
       </c>
       <c r="H3" t="n">
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>66.40055121331426</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>18.77568304716701</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.45713216103655</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>79.82547003249388</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.75769145492382</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>202.3757048449409</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>193.1994278308467</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>63.25786276724464</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1297,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>66.4005512133147</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>70.93055469222921</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1373,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>254.4359319098898</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>229.7965692041375</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>95.815141637642</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.23490948285925</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>342.4405387961582</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>238.6591887249595</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>52.23490948285925</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>288.2822493900557</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.79925355567458</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>69.96969900783358</v>
+        <v>76.93972860841149</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,22 +2086,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>145.2481701217138</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>308.9203564757131</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.86209348694693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2257,7 +2259,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>171.1096626559154</v>
       </c>
     </row>
     <row r="23">
@@ -2318,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>58.02202654638037</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>85.73480610903832</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>77.31354443380498</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2564,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>382.4823662368243</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>51.06561173382029</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>52.80938221506393</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>92.47445699814396</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249714</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>217.0914199928491</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3035,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>111.1911874932082</v>
+        <v>229.7965692041375</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492382</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3269,19 +3271,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>317.1195548090404</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3326,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>126.5388824951704</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.75769145492396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>96.48117474625255</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3503,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>126.7498226612768</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,10 +3562,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>282.3939120001633</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>108.8395062721529</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486467</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3743,13 +3745,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>173.5578851713674</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>184.1739595194687</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3958,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>104.5702261485543</v>
       </c>
       <c r="X43" t="n">
-        <v>142.6955872305736</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3983,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>57.92518451681106</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4040,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>111.4702381038701</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>122.7291074462369</v>
+        <v>114.4746605491562</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1181.996585635751</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="C2" t="n">
-        <v>1181.996585635751</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D2" t="n">
-        <v>1181.996585635751</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872917</v>
@@ -4346,34 +4348,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X2" t="n">
-        <v>1572.135917611563</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="Y2" t="n">
-        <v>1181.996585635751</v>
+        <v>2562.339328400156</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966393</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155124</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542611</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488056</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756906</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159572</v>
+        <v>932.4978103101</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751772</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4443,7 +4445,7 @@
         <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
         <v>1515.131277087194</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1006.01552520271</v>
+        <v>70.21212297928292</v>
       </c>
       <c r="C4" t="n">
-        <v>837.079342274803</v>
+        <v>70.21212297928292</v>
       </c>
       <c r="D4" t="n">
-        <v>686.9627028624673</v>
+        <v>70.21212297928292</v>
       </c>
       <c r="E4" t="n">
-        <v>539.0496092800742</v>
+        <v>70.21212297928292</v>
       </c>
       <c r="F4" t="n">
-        <v>392.1596617821638</v>
+        <v>70.21212297928292</v>
       </c>
       <c r="G4" t="n">
-        <v>224.1731970904424</v>
+        <v>70.21212297928292</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>70.21212297928292</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>700.6427178510701</v>
       </c>
       <c r="X4" t="n">
-        <v>1408.45656917648</v>
+        <v>472.6531669530527</v>
       </c>
       <c r="Y4" t="n">
-        <v>1187.66399003295</v>
+        <v>251.8605878095226</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.5121164321834</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5121164321834</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0249360836216</v>
+        <v>620.7172435647353</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>657.3836285604862</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>246.3977237708786</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>2008.078555102614</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.939223126803</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>943.7005868594143</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7644039315074</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>224.1731970904428</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1574.131181731201</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>1346.141630833184</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>1125.349051689654</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1032.061124352531</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C11" t="n">
-        <v>663.098607412119</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D11" t="n">
-        <v>663.098607412119</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E11" t="n">
-        <v>663.098607412119</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
-        <v>663.098607412119</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5069,22 +5071,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923658</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X11" t="n">
-        <v>1808.800296392464</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y11" t="n">
-        <v>1418.660964416652</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>310.0549803959803</v>
+        <v>1042.179465010819</v>
       </c>
       <c r="C13" t="n">
-        <v>310.0549803959803</v>
+        <v>873.2432820829119</v>
       </c>
       <c r="D13" t="n">
-        <v>310.0549803959803</v>
+        <v>723.1266426705762</v>
       </c>
       <c r="E13" t="n">
-        <v>310.0549803959803</v>
+        <v>575.2135490881831</v>
       </c>
       <c r="F13" t="n">
-        <v>310.0549803959803</v>
+        <v>428.3236015902727</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>260.6207649649916</v>
       </c>
       <c r="H13" t="n">
         <v>163.8377936138381</v>
@@ -5197,16 +5199,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621292</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251686</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271513</v>
+        <v>1444.620508984588</v>
       </c>
       <c r="Y13" t="n">
-        <v>310.0549803959803</v>
+        <v>1223.827929841058</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1865.035106955552</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1865.035106955552</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1506.769408348802</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>1120.981155750557</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>709.9952509609498</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5312,16 +5314,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>3084.535934008201</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W14" t="n">
-        <v>2731.767278738087</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X14" t="n">
-        <v>2731.767278738087</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>2251.634947019674</v>
       </c>
     </row>
     <row r="15">
@@ -5331,73 +5333,73 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>310.0549803959803</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>310.0549803959803</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>310.0549803959803</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>310.0549803959803</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
         <v>310.0549803959803</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621292</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251686</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271513</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y16" t="n">
-        <v>310.0549803959803</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>1881.708680670284</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1512.746163729872</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1154.480465123122</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>768.6922125248775</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>357.7063077352699</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
@@ -5516,7 +5518,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2731.767278738087</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W17" t="n">
-        <v>2731.767278738087</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X17" t="n">
-        <v>2731.767278738087</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>2268.308520734406</v>
       </c>
     </row>
     <row r="18">
@@ -5592,13 +5594,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>304.8914167017408</v>
+        <v>459.8449442241116</v>
       </c>
       <c r="C19" t="n">
-        <v>304.8914167017408</v>
+        <v>459.8449442241116</v>
       </c>
       <c r="D19" t="n">
-        <v>304.8914167017408</v>
+        <v>459.8449442241116</v>
       </c>
       <c r="E19" t="n">
-        <v>304.8914167017408</v>
+        <v>311.9318506417185</v>
       </c>
       <c r="F19" t="n">
-        <v>304.8914167017408</v>
+        <v>311.9318506417185</v>
       </c>
       <c r="G19" t="n">
-        <v>137.1885800764598</v>
+        <v>144.2290140164374</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218342</v>
@@ -5674,16 +5676,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5698,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U19" t="n">
         <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1224.739181610489</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W19" t="n">
-        <v>935.322011573528</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X19" t="n">
-        <v>707.3324606755107</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="Y19" t="n">
-        <v>486.5398815319805</v>
+        <v>459.8449442241116</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.569348694472</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C20" t="n">
-        <v>1122.60683175406</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D20" t="n">
-        <v>764.3411331473096</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="E20" t="n">
-        <v>378.5528805490654</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F20" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5774,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.308520734405</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.169188758593</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5828,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1091.613680441807</v>
+        <v>2392.59927678083</v>
       </c>
       <c r="C22" t="n">
-        <v>922.6774975139006</v>
+        <v>2223.663093852923</v>
       </c>
       <c r="D22" t="n">
-        <v>772.5608581015648</v>
+        <v>2073.546454440588</v>
       </c>
       <c r="E22" t="n">
-        <v>624.6477645191717</v>
+        <v>1925.633360858195</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959802</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H22" t="n">
-        <v>163.837793613838</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368016</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="V22" t="n">
-        <v>1134.908724368016</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="W22" t="n">
-        <v>1134.908724368016</v>
+        <v>2747.085784697853</v>
       </c>
       <c r="X22" t="n">
-        <v>1134.908724368016</v>
+        <v>2747.085784697853</v>
       </c>
       <c r="Y22" t="n">
-        <v>1134.908724368016</v>
+        <v>2574.24774161107</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1179.430764345701</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C23" t="n">
-        <v>1179.430764345701</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D23" t="n">
-        <v>821.1650657389509</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E23" t="n">
-        <v>821.1650657389509</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
         <v>66.5121164321834</v>
@@ -6017,22 +6019,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3266.997713986564</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>3013.4672372604</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V23" t="n">
-        <v>2682.404349916829</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W23" t="n">
-        <v>2329.635694646715</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X23" t="n">
-        <v>1956.169936385635</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y23" t="n">
-        <v>1566.030604409823</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="24">
@@ -6069,10 +6071,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1783.876212293103</v>
+        <v>2195.121912882181</v>
       </c>
       <c r="C25" t="n">
-        <v>1614.940029365196</v>
+        <v>2026.185729954274</v>
       </c>
       <c r="D25" t="n">
-        <v>1464.823389952861</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="E25" t="n">
-        <v>1464.823389952861</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.823389952861</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.823389952861</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.823389952861</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I25" t="n">
         <v>1464.823389952861</v>
@@ -6169,28 +6171,28 @@
         <v>3325.60582160917</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.60582160917</v>
+        <v>3239.005007357616</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.60582160917</v>
+        <v>3047.319123184443</v>
       </c>
       <c r="T25" t="n">
-        <v>3247.511332282094</v>
+        <v>2825.552507753969</v>
       </c>
       <c r="U25" t="n">
-        <v>2958.408465407738</v>
+        <v>2825.552507753969</v>
       </c>
       <c r="V25" t="n">
-        <v>2703.723977201851</v>
+        <v>2825.552507753969</v>
       </c>
       <c r="W25" t="n">
-        <v>2414.30680716489</v>
+        <v>2825.552507753969</v>
       </c>
       <c r="X25" t="n">
-        <v>2186.317256266873</v>
+        <v>2597.562956855951</v>
       </c>
       <c r="Y25" t="n">
-        <v>1965.524677123343</v>
+        <v>2376.770377712421</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1980.946859214234</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C26" t="n">
-        <v>1611.984342273822</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D26" t="n">
-        <v>1253.718643667072</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E26" t="n">
-        <v>867.9303910688277</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G26" t="n">
         <v>66.5121164321834</v>
@@ -6257,19 +6259,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>2741.012457539436</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W26" t="n">
-        <v>2741.012457539436</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X26" t="n">
-        <v>2367.546699278356</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y26" t="n">
-        <v>2367.546699278356</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
         <v>66.5121164321834</v>
@@ -6309,7 +6311,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>701.1808689801002</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C28" t="n">
-        <v>532.2446860521933</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D28" t="n">
-        <v>382.1280466398575</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E28" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
         <v>66.5121164321834</v>
@@ -6409,25 +6411,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088493</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U28" t="n">
-        <v>1875.713122094735</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V28" t="n">
-        <v>1621.028633888848</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W28" t="n">
-        <v>1331.611463851887</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X28" t="n">
-        <v>1103.62191295387</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y28" t="n">
-        <v>882.8293338103399</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2345.167438673965</v>
+        <v>1232.248790760447</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136266</v>
+        <v>3066.285263675145</v>
       </c>
       <c r="V29" t="n">
-        <v>3215.315153136266</v>
+        <v>2735.222376331575</v>
       </c>
       <c r="W29" t="n">
-        <v>3215.315153136266</v>
+        <v>2382.45372106146</v>
       </c>
       <c r="X29" t="n">
-        <v>3121.906610713899</v>
+        <v>2008.98796280038</v>
       </c>
       <c r="Y29" t="n">
-        <v>2731.767278738087</v>
+        <v>1618.848630824569</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6539,16 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1931.789305875498</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="C31" t="n">
-        <v>1762.853122947591</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="D31" t="n">
-        <v>1612.736483535255</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="E31" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="F31" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="G31" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399798</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348674</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.49300379717</v>
+        <v>2030.493003797168</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396719</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102584</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022997</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456657</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S31" t="n">
-        <v>3325.605821609171</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="T31" t="n">
-        <v>3325.605821609171</v>
+        <v>2912.153322005522</v>
       </c>
       <c r="U31" t="n">
-        <v>3106.321558990132</v>
+        <v>2623.050455131166</v>
       </c>
       <c r="V31" t="n">
-        <v>2851.637070784245</v>
+        <v>2368.365966925279</v>
       </c>
       <c r="W31" t="n">
-        <v>2562.219900747285</v>
+        <v>2078.948796888318</v>
       </c>
       <c r="X31" t="n">
-        <v>2334.230349849267</v>
+        <v>1850.959245990301</v>
       </c>
       <c r="Y31" t="n">
-        <v>2113.437770705737</v>
+        <v>1630.166666846771</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1250.80968089488</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C32" t="n">
-        <v>881.8471639544687</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D32" t="n">
-        <v>523.5814653477182</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E32" t="n">
-        <v>523.5814653477182</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912089</v>
@@ -6722,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>2753.783266466008</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W32" t="n">
-        <v>2401.014611195894</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X32" t="n">
-        <v>2027.548852934814</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y32" t="n">
-        <v>1637.409520959002</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I33" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6880,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W34" t="n">
-        <v>590.8070661251691</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X34" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.0249360836216</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1506.363819949361</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C35" t="n">
-        <v>1137.401303008949</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D35" t="n">
-        <v>1137.401303008949</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
-        <v>1137.401303008949</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>726.4153982193418</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W35" t="n">
-        <v>2656.568750250374</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X35" t="n">
-        <v>2283.102991989294</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y35" t="n">
-        <v>1892.963660013483</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="36">
@@ -7005,22 +7007,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1464.823389952862</v>
+        <v>1042.179465010819</v>
       </c>
       <c r="C37" t="n">
-        <v>1464.823389952862</v>
+        <v>873.2432820829119</v>
       </c>
       <c r="D37" t="n">
-        <v>1464.823389952862</v>
+        <v>723.1266426705762</v>
       </c>
       <c r="E37" t="n">
-        <v>1464.823389952862</v>
+        <v>575.2135490881831</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.823389952862</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952862</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952862</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193526</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.322864763052</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U37" t="n">
-        <v>2533.219997888695</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V37" t="n">
-        <v>2278.535509682808</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W37" t="n">
-        <v>1989.118339645848</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="X37" t="n">
-        <v>1761.12878874783</v>
+        <v>1444.620508984588</v>
       </c>
       <c r="Y37" t="n">
-        <v>1540.3362096043</v>
+        <v>1223.827929841058</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796252</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C38" t="n">
-        <v>552.8079389392135</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D38" t="n">
-        <v>194.542240332463</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>66.5121164321834</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>66.5121164321834</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7196,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180638</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943747</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
         <v>176.0213023927779</v>
@@ -7257,7 +7259,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>441.479525463516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1326.59460854119</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V40" t="n">
-        <v>1071.910120335303</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W40" t="n">
-        <v>1071.910120335303</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X40" t="n">
-        <v>843.9205694372858</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y40" t="n">
-        <v>623.1279902937557</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038042</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097631</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D41" t="n">
-        <v>1095.40402049088</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>709.6157678926361</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339056</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077976</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102164</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="42">
@@ -7479,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031477</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7597,22 +7599,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1638.191681214136</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.191681214136</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W43" t="n">
-        <v>1638.191681214136</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1238.038871968308</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C44" t="n">
-        <v>869.0763550278964</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D44" t="n">
-        <v>510.8106564211459</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E44" t="n">
-        <v>125.0224038229017</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F44" t="n">
-        <v>66.5121164321834</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912079</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V44" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X44" t="n">
-        <v>2014.778044008242</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="Y44" t="n">
-        <v>1624.63871203243</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7724,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2151.387871657139</v>
+        <v>182.1430866838564</v>
       </c>
       <c r="C46" t="n">
-        <v>1982.451688729233</v>
+        <v>182.1430866838564</v>
       </c>
       <c r="D46" t="n">
-        <v>1832.335049316897</v>
+        <v>182.1430866838564</v>
       </c>
       <c r="E46" t="n">
-        <v>1832.335049316897</v>
+        <v>182.1430866838564</v>
       </c>
       <c r="F46" t="n">
-        <v>1832.335049316897</v>
+        <v>182.1430866838564</v>
       </c>
       <c r="G46" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L46" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M46" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N46" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O46" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.60582160917</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T46" t="n">
-        <v>3325.60582160917</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U46" t="n">
-        <v>3036.502954734814</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V46" t="n">
-        <v>2781.818466528927</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W46" t="n">
-        <v>2781.818466528927</v>
+        <v>812.5736815556436</v>
       </c>
       <c r="X46" t="n">
-        <v>2553.828915630909</v>
+        <v>584.5841306576262</v>
       </c>
       <c r="Y46" t="n">
-        <v>2333.036336487379</v>
+        <v>363.7915515140961</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9556134883073923</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>186.5911984019048</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8307,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.4490126143851</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>183.7907424631431</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22565,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22606,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>66.42295118531075</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>80.85095794181461</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>86.02091215673356</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -22759,13 +22761,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.276709502444</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22793,7 +22795,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>327.0505757092176</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.0742887270135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22951,16 +22953,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22999,16 +23001,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>49.76193847888709</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23033,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>218.3482749421073</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>306.4732379112244</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23185,7 +23187,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23194,7 +23196,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>80.85095794181414</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23224,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>215.5924436443618</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>156.4857937435636</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23311,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>97.95568926599745</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>48.93987327667878</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>166.3497438692355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>68.48118685729526</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>89.09306974517543</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>166.3497438692355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>122.6394762633978</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>303.9530049144603</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>74.7853159064872</v>
+        <v>67.8152863059093</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23972,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>209.4348714989691</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>97.95568926599833</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>136.9698866949904</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>47.47499069617936</v>
       </c>
     </row>
     <row r="23">
@@ -24206,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>64.8111951831838</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,13 +24259,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>145.8959435932398</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>3.197346561009013</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>142.2354048423642</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24452,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>24.39367950488713</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24497,19 +24499,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24601,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24649,13 +24651,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>235.1462264717926</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24683,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>198.1857897438381</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>277.2566436803251</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16.14213605696585</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24886,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>69.12041821276378</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24923,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,13 +24970,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>216.5610709769267</v>
+        <v>97.95568926599745</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270135</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25157,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>93.80217084441307</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25202,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -25214,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>222.7020862222426</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>48.9398732766787</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25391,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>255.180547410985</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,10 +25450,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>45.35834646997165</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>58.4073148264749</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25631,13 +25633,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>181.1251564493156</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>222.7020862222428</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>181.9527721880367</v>
       </c>
       <c r="X43" t="n">
-        <v>83.0140681584636</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>348.9508612249004</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>258.2608625745989</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>43.29670081279134</v>
+        <v>51.55114770987198</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>770100.8188680861</v>
+        <v>770100.818868086</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>845811.9398839653</v>
+        <v>770100.818868086</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>845811.9398839654</v>
+        <v>770100.8188680861</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>845811.9398839653</v>
+        <v>845811.9398839654</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839652</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839653</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839655</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839655</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321270.2120190237</v>
+        <v>321270.212019024</v>
       </c>
       <c r="C2" t="n">
-        <v>358046.9539194666</v>
+        <v>321270.212019024</v>
       </c>
       <c r="D2" t="n">
-        <v>358046.9539194664</v>
+        <v>321270.212019024</v>
       </c>
       <c r="E2" t="n">
         <v>358046.9539194666</v>
@@ -26329,7 +26331,7 @@
         <v>358046.9539194666</v>
       </c>
       <c r="H2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="I2" t="n">
         <v>358046.9539194666</v>
@@ -26338,19 +26340,19 @@
         <v>358046.9539194666</v>
       </c>
       <c r="K2" t="n">
-        <v>358046.9539194665</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="L2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="M2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="N2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194664</v>
       </c>
       <c r="O2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="P2" t="n">
         <v>358046.9539194666</v>
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47552.26579341482</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,16 +26420,16 @@
         <v>20992.13942082914</v>
       </c>
       <c r="C4" t="n">
+        <v>20992.13942082913</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20992.13942082913</v>
+      </c>
+      <c r="E4" t="n">
         <v>10990.29103211609</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>10990.29103211609</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10990.29103211611</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10990.29103211611</v>
       </c>
       <c r="G4" t="n">
         <v>10990.29103211609</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984473</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="C5" t="n">
-        <v>107933.9405613933</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26485,7 +26487,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139328</v>
@@ -26494,22 +26496,22 @@
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="N5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-907411.4834175695</v>
+        <v>-907411.4834175699</v>
       </c>
       <c r="C6" t="n">
-        <v>35683.98071385134</v>
+        <v>207340.3001583501</v>
       </c>
       <c r="D6" t="n">
-        <v>239122.722325957</v>
+        <v>207340.3001583501</v>
       </c>
       <c r="E6" t="n">
+        <v>90677.34250876657</v>
+      </c>
+      <c r="F6" t="n">
         <v>272750.3223259574</v>
       </c>
-      <c r="F6" t="n">
-        <v>272750.3223259572</v>
-      </c>
       <c r="G6" t="n">
-        <v>272750.3223259572</v>
+        <v>272750.3223259568</v>
       </c>
       <c r="H6" t="n">
-        <v>272750.3223259572</v>
+        <v>272750.3223259573</v>
       </c>
       <c r="I6" t="n">
         <v>272750.3223259572</v>
@@ -26546,22 +26548,22 @@
         <v>105145.1445159747</v>
       </c>
       <c r="K6" t="n">
-        <v>223640.2296199026</v>
+        <v>272750.3223259572</v>
       </c>
       <c r="L6" t="n">
-        <v>272750.3223259572</v>
+        <v>272750.3223259573</v>
       </c>
       <c r="M6" t="n">
-        <v>272750.3223259572</v>
+        <v>225198.0565325423</v>
       </c>
       <c r="N6" t="n">
-        <v>272750.3223259572</v>
+        <v>272750.322325957</v>
       </c>
       <c r="O6" t="n">
-        <v>272750.3223259572</v>
+        <v>272750.3223259573</v>
       </c>
       <c r="P6" t="n">
-        <v>272750.3223259572</v>
+        <v>272750.3223259571</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
@@ -26805,7 +26807,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022925</v>
@@ -26814,22 +26816,22 @@
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>190.8166233022538</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>190.8166233022537</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000389</v>
-      </c>
-      <c r="K4" t="n">
-        <v>190.816623302254</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31999,7 +32001,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003817</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
         <v>691.3565293623192</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32558,7 +32560,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33029,7 +33031,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33734,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33752,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33983,7 +33985,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34129,7 +34131,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
         <v>557.281137600381</v>
@@ -34208,10 +34210,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953979</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>298.6359741261575</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>522.0158803980279</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>521.8736946105082</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554011</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923319</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859626</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,7 +36208,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,7 +36679,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -37148,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37400,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37631,7 +37633,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
